--- a/biology/Histoire de la zoologie et de la botanique/Émile_Louis_Ragonot/Émile_Louis_Ragonot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Louis_Ragonot/Émile_Louis_Ragonot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Louis_Ragonot</t>
+          <t>Émile_Louis_Ragonot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Louis Ragonot, né à Paris le 12 octobre 1843 et mort dans cette même ville le 13 octobre 1895[1], est un entomologiste français, président de la Société entomologique de France en 1885 et en 1895.
-Ce spécialiste des lépidoptères a nommé 301 nouveaux genres de papillons, principalement dans la famille des Pyralidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Louis Ragonot, né à Paris le 12 octobre 1843 et mort dans cette même ville le 13 octobre 1895, est un entomologiste français, président de la Société entomologique de France en 1885 et en 1895.
+Ce spécialiste des lépidoptères a nommé 301 nouveaux genres de papillons, principalement dans la famille des Pyralidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Louis_Ragonot</t>
+          <t>Émile_Louis_Ragonot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Diagnoses of North American Phycitidae and Galleriidae, Paris (1887)
 Nouveaux genres et espèces de Phycitidae &amp; Galleriidae (1888)
